--- a/medicine/Enfance/Henriette_Daux/Henriette_Daux.xlsx
+++ b/medicine/Enfance/Henriette_Daux/Henriette_Daux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Marie Félicie Henriette Daux née le 21 septembre 1864 à Paris et morte le 8 juin 1953 à Vanves[1], est une artiste peintre, pastelliste et une écrivaine française.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marie Félicie Henriette Daux née le 21 septembre 1864 à Paris et morte le 8 juin 1953 à Vanves, est une artiste peintre, pastelliste et une écrivaine française.
 </t>
         </is>
       </c>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Née à Paris en 1864, issue d'un milieu bourgeois, fille d'André Auguste Daux, ingénieur, et de Marie Antoinette Josèphe Brack, Henriette Daux étudie à la fois le chant sous la direction du professeur et hazzan Adolphe Béer (mort en 1924)[2], le dessin et la peinture à l'Académie Julian auprès de Jules Lefebvre et d'Alfred Roll[3],[4].
-Elle expose au Salon des artistes français dès 1887 une série de portraits au pastel, puis continue d'y envoyer ses œuvres ainsi qu'au Salon du Champ-de-Mars. En 1898, le critique Louis Énault constate que « sur la cymaise d'une scelle très en vue qu'elle pose la pointe du soulier de bal qui chausse un pied fin, à la cambrure aristocratique, Mlle Daux a le sentiment du high-life select, et sait le traduire dans ses œuvres très bien venues, que nous sommes heureux de signaler […] »[5]. Elle peint également quelques études de nus et un autoportrait en pied (huile sur toile).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Née à Paris en 1864, issue d'un milieu bourgeois, fille d'André Auguste Daux, ingénieur, et de Marie Antoinette Josèphe Brack, Henriette Daux étudie à la fois le chant sous la direction du professeur et hazzan Adolphe Béer (mort en 1924), le dessin et la peinture à l'Académie Julian auprès de Jules Lefebvre et d'Alfred Roll,.
+Elle expose au Salon des artistes français dès 1887 une série de portraits au pastel, puis continue d'y envoyer ses œuvres ainsi qu'au Salon du Champ-de-Mars. En 1898, le critique Louis Énault constate que « sur la cymaise d'une scelle très en vue qu'elle pose la pointe du soulier de bal qui chausse un pied fin, à la cambrure aristocratique, Mlle Daux a le sentiment du high-life select, et sait le traduire dans ses œuvres très bien venues, que nous sommes heureux de signaler […] ». Elle peint également quelques études de nus et un autoportrait en pied (huile sur toile).
 À partir de 1895, Henriette Daux publie des contes sous la forme de livres d'étrennes destinés à la jeunesse chez l'ancienne Maison Quantin, et pour les magazines Musée des familles et Saint-Nicolas publiés par Delagrave.
-C'est également à cette époque qu'elle décore de fresques la salon du manoir de Kerazan, travail, toujours visible, commandité par Jules-Georges Astor, maire de Quimper et grand collectionneur[6].
-Le 15 février 1904, Alfred Roll, veuf depuis 1898, l'épouse en secondes noces ; les témoins sont le peintre Pierre-Emmanuel Damoye et le critique André-Ferdinand Hérold[7].
+C'est également à cette époque qu'elle décore de fresques la salon du manoir de Kerazan, travail, toujours visible, commandité par Jules-Georges Astor, maire de Quimper et grand collectionneur.
+Le 15 février 1904, Alfred Roll, veuf depuis 1898, l'épouse en secondes noces ; les témoins sont le peintre Pierre-Emmanuel Damoye et le critique André-Ferdinand Hérold.
 Roll l'a représentée à plusieurs reprises dans des toiles.
 </t>
         </is>
@@ -547,7 +561,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les déceptions ; suivi de : Au clair de la lune ; et Noir et blanc, Paris, Librairies-imprimeries réunies - Ancienne Maison Quantin, 1895.
 Entre chien et chat ; suivi de : Histoire de Clair-voyant ; et Justice et charité, Paris, Librairies-imprimeries réunies, 1895.
